--- a/vypocet.xlsx
+++ b/vypocet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\240141\MKS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB6318C4-4E80-4100-8F05-FA3C81EB99EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AF7BC6-3B38-4709-A206-224139FD0C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="4095" windowWidth="21600" windowHeight="11505" xr2:uid="{574063BC-A38B-434D-A80C-C48769E39F30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{574063BC-A38B-434D-A80C-C48769E39F30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -380,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933CC1C1-9F67-4DCC-82F2-3D4ED4490A40}">
-  <dimension ref="B2:F3"/>
+  <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,6 +427,45 @@
         <v>500</v>
       </c>
     </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f t="shared" ref="B6:E6" si="1">(B5/4095*15000)+5000</f>
+        <v>5000</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>5003.663003663004</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>5007.3260073260071</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>5036.6300366300366</v>
+      </c>
+      <c r="F6">
+        <f>(F5/4095*15000)+5000</f>
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
